--- a/Успеваемость_С-ИП-21-1_БД.xlsx
+++ b/Успеваемость_С-ИП-21-1_БД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C06AEFD-B82C-404F-90E4-058F90857579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F13E870-A8EA-5C42-807F-D4E17D102A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -132,6 +132,33 @@
   </si>
   <si>
     <t>Рейтинг</t>
+  </si>
+  <si>
+    <t>Экзамен</t>
+  </si>
+  <si>
+    <t>Общий</t>
+  </si>
+  <si>
+    <t>Баллы</t>
+  </si>
+  <si>
+    <t>Отлично</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>Удовлетворительно</t>
+  </si>
+  <si>
+    <t>Кузнецов Андрей</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Не аттестован</t>
   </si>
 </sst>
 </file>
@@ -141,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -152,11 +179,25 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -179,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -258,11 +299,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -332,6 +410,35 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1541,11 +1648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y11" sqref="Y11"/>
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1664,7 @@
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1628,10 +1735,19 @@
         <v>45037</v>
       </c>
       <c r="X1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1701,12 +1817,21 @@
       <c r="W2" s="32">
         <v>10</v>
       </c>
-      <c r="X2" s="32">
-        <f>SUM(K2:W2)</f>
+      <c r="X2" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="32">
+        <f>SUM(K2:X2)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="32">
+        <v>145</v>
+      </c>
+      <c r="AA2" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1776,12 +1901,21 @@
       <c r="W3" s="32">
         <v>10</v>
       </c>
-      <c r="X3" s="32">
-        <f t="shared" ref="X3:X19" si="0">SUM(K3:W3)</f>
+      <c r="X3" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="32">
+        <f t="shared" ref="Y3:Y19" si="0">SUM(K3:X3)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z3" s="32">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1852,11 +1986,20 @@
         <v>10</v>
       </c>
       <c r="X4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="32">
+        <v>265</v>
+      </c>
+      <c r="AA4" s="32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1926,12 +2069,19 @@
       <c r="W5" s="32">
         <v>10</v>
       </c>
-      <c r="X5" s="32">
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32">
         <f t="shared" si="0"/>
         <v>-35</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="32">
+        <v>-40</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2001,12 +2151,21 @@
       <c r="W6" s="32">
         <v>10</v>
       </c>
-      <c r="X6" s="32">
+      <c r="X6" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="32">
         <f t="shared" si="0"/>
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-15</v>
+      </c>
+      <c r="Z6" s="33">
+        <v>-65</v>
+      </c>
+      <c r="AA6" s="33">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2077,908 +2236,1021 @@
         <v>10</v>
       </c>
       <c r="X7" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="32">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="Z7" s="33">
+        <v>180</v>
+      </c>
+      <c r="AA7" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9">
+        <v>-15</v>
+      </c>
+      <c r="L8" s="9">
+        <v>10</v>
+      </c>
+      <c r="M8" s="9">
+        <v>15</v>
+      </c>
+      <c r="N8" s="9">
+        <v>10</v>
+      </c>
+      <c r="O8" s="9">
+        <v>10</v>
+      </c>
+      <c r="P8" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>15</v>
+      </c>
+      <c r="R8" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S8" s="10">
+        <v>10</v>
+      </c>
+      <c r="T8" s="30">
+        <v>0</v>
+      </c>
+      <c r="U8" s="32">
+        <v>-15</v>
+      </c>
+      <c r="V8" s="32">
+        <v>-10</v>
+      </c>
+      <c r="W8" s="32">
+        <v>10</v>
+      </c>
+      <c r="X8" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="32">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Z8" s="33">
+        <v>65</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="9">
+        <v>-15</v>
+      </c>
+      <c r="L9" s="9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>10</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>15</v>
+      </c>
+      <c r="R9" s="9">
+        <v>10</v>
+      </c>
+      <c r="S9" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T9" s="30">
+        <v>15</v>
+      </c>
+      <c r="U9" s="32">
+        <v>10</v>
+      </c>
+      <c r="V9" s="32">
+        <v>-10</v>
+      </c>
+      <c r="W9" s="32">
+        <v>10</v>
+      </c>
+      <c r="X9" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="32">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Z9" s="33">
+        <v>110</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="9">
+        <v>10</v>
+      </c>
+      <c r="L10" s="9">
+        <v>10</v>
+      </c>
+      <c r="M10" s="9">
+        <v>15</v>
+      </c>
+      <c r="N10" s="9">
+        <v>10</v>
+      </c>
+      <c r="O10" s="9">
+        <v>10</v>
+      </c>
+      <c r="P10" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>15</v>
+      </c>
+      <c r="R10" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S10" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T10" s="30">
+        <v>15</v>
+      </c>
+      <c r="U10" s="32">
+        <v>10</v>
+      </c>
+      <c r="V10" s="32">
+        <v>15</v>
+      </c>
+      <c r="W10" s="32">
+        <v>10</v>
+      </c>
+      <c r="X10" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="32">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="Z10" s="32">
+        <v>195</v>
+      </c>
+      <c r="AA10" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="9">
+        <v>-15</v>
+      </c>
+      <c r="L11" s="9">
+        <v>10</v>
+      </c>
+      <c r="M11" s="9">
+        <v>15</v>
+      </c>
+      <c r="N11" s="9">
+        <v>10</v>
+      </c>
+      <c r="O11" s="9">
+        <v>10</v>
+      </c>
+      <c r="P11" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>15</v>
+      </c>
+      <c r="R11" s="9">
+        <v>10</v>
+      </c>
+      <c r="S11" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T11" s="30">
+        <v>15</v>
+      </c>
+      <c r="U11" s="32">
+        <v>10</v>
+      </c>
+      <c r="V11" s="32">
+        <v>-10</v>
+      </c>
+      <c r="W11" s="32">
+        <v>10</v>
+      </c>
+      <c r="X11" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Z11" s="32">
+        <v>130</v>
+      </c>
+      <c r="AA11" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>10</v>
+      </c>
+      <c r="M12" s="9">
+        <v>-10</v>
+      </c>
+      <c r="N12" s="9">
+        <v>10</v>
+      </c>
+      <c r="O12" s="9">
+        <v>10</v>
+      </c>
+      <c r="P12" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>15</v>
+      </c>
+      <c r="R12" s="9">
+        <v>10</v>
+      </c>
+      <c r="S12" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T12" s="30">
+        <v>15</v>
+      </c>
+      <c r="U12" s="32">
+        <v>10</v>
+      </c>
+      <c r="V12" s="32">
+        <v>15</v>
+      </c>
+      <c r="W12" s="32">
+        <v>10</v>
+      </c>
+      <c r="X12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="32">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>210</v>
+      </c>
+      <c r="AA12" s="32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>10</v>
+      </c>
+      <c r="M13" s="9">
+        <v>-10</v>
+      </c>
+      <c r="N13" s="9">
+        <v>10</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>-10</v>
+      </c>
+      <c r="R13" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S13" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T13" s="30">
+        <v>-10</v>
+      </c>
+      <c r="U13" s="32">
+        <v>-15</v>
+      </c>
+      <c r="V13" s="32">
+        <v>-10</v>
+      </c>
+      <c r="W13" s="32">
+        <v>-15</v>
+      </c>
+      <c r="X13" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="32">
+        <f t="shared" si="0"/>
+        <v>-85</v>
+      </c>
+      <c r="Z13" s="32">
+        <v>-100</v>
+      </c>
+      <c r="AA13" s="32">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L8" s="9">
-        <v>10</v>
-      </c>
-      <c r="M8" s="9">
-        <v>15</v>
-      </c>
-      <c r="N8" s="9">
-        <v>10</v>
-      </c>
-      <c r="O8" s="9">
-        <v>10</v>
-      </c>
-      <c r="P8" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>15</v>
-      </c>
-      <c r="R8" s="9">
-        <v>-15</v>
-      </c>
-      <c r="S8" s="10">
-        <v>10</v>
-      </c>
-      <c r="T8" s="30">
+      <c r="F14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="9">
+        <v>10</v>
+      </c>
+      <c r="L14" s="9">
+        <v>10</v>
+      </c>
+      <c r="M14" s="9">
+        <v>15</v>
+      </c>
+      <c r="N14" s="9">
+        <v>10</v>
+      </c>
+      <c r="O14" s="9">
+        <v>-15</v>
+      </c>
+      <c r="P14" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>15</v>
+      </c>
+      <c r="R14" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S14" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T14" s="30">
+        <v>-10</v>
+      </c>
+      <c r="U14" s="32">
+        <v>10</v>
+      </c>
+      <c r="V14" s="32">
+        <v>-10</v>
+      </c>
+      <c r="W14" s="32">
+        <v>10</v>
+      </c>
+      <c r="X14" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>-5</v>
+      </c>
+      <c r="AA14" s="32">
         <v>0</v>
       </c>
-      <c r="U8" s="32">
-        <v>-15</v>
-      </c>
-      <c r="V8" s="32">
+    </row>
+    <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="L15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="M15" s="9">
         <v>-10</v>
       </c>
-      <c r="W8" s="32">
-        <v>10</v>
-      </c>
-      <c r="X8" s="32">
+      <c r="N15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="O15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="P15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>-10</v>
+      </c>
+      <c r="R15" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S15" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T15" s="30">
+        <v>-10</v>
+      </c>
+      <c r="U15" s="32">
+        <v>-15</v>
+      </c>
+      <c r="V15" s="32">
+        <v>-10</v>
+      </c>
+      <c r="W15" s="32">
+        <v>-15</v>
+      </c>
+      <c r="X15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="32">
+        <f t="shared" si="0"/>
+        <v>-175</v>
+      </c>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+    </row>
+    <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="9">
+        <v>10</v>
+      </c>
+      <c r="L16" s="9">
+        <v>10</v>
+      </c>
+      <c r="M16" s="9">
+        <v>15</v>
+      </c>
+      <c r="N16" s="9">
+        <v>10</v>
+      </c>
+      <c r="O16" s="9">
+        <v>10</v>
+      </c>
+      <c r="P16" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>15</v>
+      </c>
+      <c r="R16" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S16" s="10">
+        <v>10</v>
+      </c>
+      <c r="T16" s="30">
+        <v>-10</v>
+      </c>
+      <c r="U16" s="32">
+        <v>10</v>
+      </c>
+      <c r="V16" s="32">
+        <v>15</v>
+      </c>
+      <c r="W16" s="32">
+        <v>10</v>
+      </c>
+      <c r="X16" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="32">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>180</v>
+      </c>
+      <c r="AA16" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="9">
+        <v>10</v>
+      </c>
+      <c r="L17" s="9">
+        <v>10</v>
+      </c>
+      <c r="M17" s="9">
+        <v>15</v>
+      </c>
+      <c r="N17" s="9">
+        <v>10</v>
+      </c>
+      <c r="O17" s="9">
+        <v>10</v>
+      </c>
+      <c r="P17" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>-10</v>
+      </c>
+      <c r="R17" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S17" s="10">
+        <v>-15</v>
+      </c>
+      <c r="T17" s="30">
+        <v>0</v>
+      </c>
+      <c r="U17" s="32">
+        <v>10</v>
+      </c>
+      <c r="V17" s="32">
+        <v>-10</v>
+      </c>
+      <c r="W17" s="32">
+        <v>10</v>
+      </c>
+      <c r="X17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="Z17" s="32">
+        <v>140</v>
+      </c>
+      <c r="AA17" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="9">
+        <v>10</v>
+      </c>
+      <c r="L18" s="9">
+        <v>10</v>
+      </c>
+      <c r="M18" s="9">
+        <v>15</v>
+      </c>
+      <c r="N18" s="9">
+        <v>10</v>
+      </c>
+      <c r="O18" s="9">
+        <v>10</v>
+      </c>
+      <c r="P18" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>15</v>
+      </c>
+      <c r="R18" s="9">
+        <v>-15</v>
+      </c>
+      <c r="S18" s="10">
+        <v>10</v>
+      </c>
+      <c r="T18" s="30">
+        <v>15</v>
+      </c>
+      <c r="U18" s="32">
+        <v>10</v>
+      </c>
+      <c r="V18" s="32">
+        <v>-10</v>
+      </c>
+      <c r="W18" s="32">
+        <v>10</v>
+      </c>
+      <c r="X18" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="32">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="Z18" s="32">
+        <v>180</v>
+      </c>
+      <c r="AA18" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L9" s="9">
-        <v>10</v>
-      </c>
-      <c r="M9" s="9">
+      <c r="D19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="9">
+        <v>10</v>
+      </c>
+      <c r="L19" s="9">
+        <v>10</v>
+      </c>
+      <c r="M19" s="9">
+        <v>-10</v>
+      </c>
+      <c r="N19" s="9">
+        <v>-15</v>
+      </c>
+      <c r="O19" s="9">
+        <v>10</v>
+      </c>
+      <c r="P19" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>-10</v>
+      </c>
+      <c r="R19" s="9">
+        <v>10</v>
+      </c>
+      <c r="S19" s="10">
         <v>0</v>
       </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>10</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>15</v>
-      </c>
-      <c r="R9" s="9">
-        <v>10</v>
-      </c>
-      <c r="S9" s="10">
-        <v>-15</v>
-      </c>
-      <c r="T9" s="30">
-        <v>15</v>
-      </c>
-      <c r="U9" s="32">
-        <v>10</v>
-      </c>
-      <c r="V9" s="32">
-        <v>-10</v>
-      </c>
-      <c r="W9" s="32">
-        <v>10</v>
-      </c>
-      <c r="X9" s="32">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="9">
-        <v>10</v>
-      </c>
-      <c r="L10" s="9">
-        <v>10</v>
-      </c>
-      <c r="M10" s="9">
-        <v>15</v>
-      </c>
-      <c r="N10" s="9">
-        <v>10</v>
-      </c>
-      <c r="O10" s="9">
-        <v>10</v>
-      </c>
-      <c r="P10" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>15</v>
-      </c>
-      <c r="R10" s="9">
-        <v>-15</v>
-      </c>
-      <c r="S10" s="10">
-        <v>-15</v>
-      </c>
-      <c r="T10" s="30">
-        <v>15</v>
-      </c>
-      <c r="U10" s="32">
-        <v>10</v>
-      </c>
-      <c r="V10" s="32">
-        <v>15</v>
-      </c>
-      <c r="W10" s="32">
-        <v>10</v>
-      </c>
-      <c r="X10" s="32">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L11" s="9">
-        <v>10</v>
-      </c>
-      <c r="M11" s="9">
-        <v>15</v>
-      </c>
-      <c r="N11" s="9">
-        <v>10</v>
-      </c>
-      <c r="O11" s="9">
-        <v>10</v>
-      </c>
-      <c r="P11" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>15</v>
-      </c>
-      <c r="R11" s="9">
-        <v>10</v>
-      </c>
-      <c r="S11" s="10">
-        <v>-15</v>
-      </c>
-      <c r="T11" s="30">
-        <v>15</v>
-      </c>
-      <c r="U11" s="32">
-        <v>10</v>
-      </c>
-      <c r="V11" s="32">
-        <v>-10</v>
-      </c>
-      <c r="W11" s="32">
-        <v>10</v>
-      </c>
-      <c r="X11" s="32">
+      <c r="T19" s="30">
+        <v>15</v>
+      </c>
+      <c r="U19" s="32">
+        <v>10</v>
+      </c>
+      <c r="V19" s="32">
+        <v>15</v>
+      </c>
+      <c r="W19" s="32">
+        <v>10</v>
+      </c>
+      <c r="X19" s="32">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>10</v>
-      </c>
-      <c r="M12" s="9">
-        <v>-10</v>
-      </c>
-      <c r="N12" s="9">
-        <v>10</v>
-      </c>
-      <c r="O12" s="9">
-        <v>10</v>
-      </c>
-      <c r="P12" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>15</v>
-      </c>
-      <c r="R12" s="9">
-        <v>10</v>
-      </c>
-      <c r="S12" s="10">
-        <v>-15</v>
-      </c>
-      <c r="T12" s="30">
-        <v>15</v>
-      </c>
-      <c r="U12" s="32">
-        <v>10</v>
-      </c>
-      <c r="V12" s="32">
-        <v>15</v>
-      </c>
-      <c r="W12" s="32">
-        <v>10</v>
-      </c>
-      <c r="X12" s="32">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="Z19" s="32">
+        <v>80</v>
+      </c>
+      <c r="AA19" s="32">
         <v>4</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>10</v>
-      </c>
-      <c r="M13" s="9">
-        <v>-10</v>
-      </c>
-      <c r="N13" s="9">
-        <v>10</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>-10</v>
-      </c>
-      <c r="R13" s="9">
-        <v>-15</v>
-      </c>
-      <c r="S13" s="10">
-        <v>-15</v>
-      </c>
-      <c r="T13" s="30">
-        <v>-10</v>
-      </c>
-      <c r="U13" s="32">
-        <v>-15</v>
-      </c>
-      <c r="V13" s="32">
-        <v>-10</v>
-      </c>
-      <c r="W13" s="32">
-        <v>-15</v>
-      </c>
-      <c r="X13" s="32">
-        <f t="shared" si="0"/>
-        <v>-95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="9">
-        <v>10</v>
-      </c>
-      <c r="L14" s="9">
-        <v>10</v>
-      </c>
-      <c r="M14" s="9">
-        <v>15</v>
-      </c>
-      <c r="N14" s="9">
-        <v>10</v>
-      </c>
-      <c r="O14" s="9">
-        <v>-15</v>
-      </c>
-      <c r="P14" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>15</v>
-      </c>
-      <c r="R14" s="9">
-        <v>-15</v>
-      </c>
-      <c r="S14" s="10">
-        <v>-15</v>
-      </c>
-      <c r="T14" s="30">
-        <v>-10</v>
-      </c>
-      <c r="U14" s="32">
-        <v>10</v>
-      </c>
-      <c r="V14" s="32">
-        <v>-10</v>
-      </c>
-      <c r="W14" s="32">
-        <v>10</v>
-      </c>
-      <c r="X14" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L15" s="9">
-        <v>-15</v>
-      </c>
-      <c r="M15" s="9">
-        <v>-10</v>
-      </c>
-      <c r="N15" s="9">
-        <v>-15</v>
-      </c>
-      <c r="O15" s="9">
-        <v>-15</v>
-      </c>
-      <c r="P15" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>-10</v>
-      </c>
-      <c r="R15" s="9">
-        <v>-15</v>
-      </c>
-      <c r="S15" s="10">
-        <v>-15</v>
-      </c>
-      <c r="T15" s="30">
-        <v>-10</v>
-      </c>
-      <c r="U15" s="32">
-        <v>-15</v>
-      </c>
-      <c r="V15" s="32">
-        <v>-10</v>
-      </c>
-      <c r="W15" s="32">
-        <v>-15</v>
-      </c>
-      <c r="X15" s="32">
-        <f t="shared" si="0"/>
-        <v>-175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="9">
-        <v>10</v>
-      </c>
-      <c r="L16" s="9">
-        <v>10</v>
-      </c>
-      <c r="M16" s="9">
-        <v>15</v>
-      </c>
-      <c r="N16" s="9">
-        <v>10</v>
-      </c>
-      <c r="O16" s="9">
-        <v>10</v>
-      </c>
-      <c r="P16" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>15</v>
-      </c>
-      <c r="R16" s="9">
-        <v>-15</v>
-      </c>
-      <c r="S16" s="10">
-        <v>10</v>
-      </c>
-      <c r="T16" s="30">
-        <v>-10</v>
-      </c>
-      <c r="U16" s="32">
-        <v>10</v>
-      </c>
-      <c r="V16" s="32">
-        <v>15</v>
-      </c>
-      <c r="W16" s="32">
-        <v>10</v>
-      </c>
-      <c r="X16" s="32">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="9">
-        <v>10</v>
-      </c>
-      <c r="L17" s="9">
-        <v>10</v>
-      </c>
-      <c r="M17" s="9">
-        <v>15</v>
-      </c>
-      <c r="N17" s="9">
-        <v>10</v>
-      </c>
-      <c r="O17" s="9">
-        <v>10</v>
-      </c>
-      <c r="P17" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>-10</v>
-      </c>
-      <c r="R17" s="9">
-        <v>-15</v>
-      </c>
-      <c r="S17" s="10">
-        <v>-15</v>
-      </c>
-      <c r="T17" s="30">
-        <v>0</v>
-      </c>
-      <c r="U17" s="32">
-        <v>10</v>
-      </c>
-      <c r="V17" s="32">
-        <v>-10</v>
-      </c>
-      <c r="W17" s="32">
-        <v>10</v>
-      </c>
-      <c r="X17" s="32">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="9">
-        <v>10</v>
-      </c>
-      <c r="L18" s="9">
-        <v>10</v>
-      </c>
-      <c r="M18" s="9">
-        <v>15</v>
-      </c>
-      <c r="N18" s="9">
-        <v>10</v>
-      </c>
-      <c r="O18" s="9">
-        <v>10</v>
-      </c>
-      <c r="P18" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>15</v>
-      </c>
-      <c r="R18" s="9">
-        <v>-15</v>
-      </c>
-      <c r="S18" s="10">
-        <v>10</v>
-      </c>
-      <c r="T18" s="30">
-        <v>15</v>
-      </c>
-      <c r="U18" s="32">
-        <v>10</v>
-      </c>
-      <c r="V18" s="32">
-        <v>-10</v>
-      </c>
-      <c r="W18" s="32">
-        <v>10</v>
-      </c>
-      <c r="X18" s="32">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="9">
-        <v>10</v>
-      </c>
-      <c r="L19" s="9">
-        <v>10</v>
-      </c>
-      <c r="M19" s="9">
-        <v>-10</v>
-      </c>
-      <c r="N19" s="9">
-        <v>-15</v>
-      </c>
-      <c r="O19" s="9">
-        <v>10</v>
-      </c>
-      <c r="P19" s="9">
-        <v>-15</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>-10</v>
-      </c>
-      <c r="R19" s="9">
-        <v>10</v>
-      </c>
-      <c r="S19" s="10">
-        <v>0</v>
-      </c>
-      <c r="T19" s="30">
-        <v>15</v>
-      </c>
-      <c r="U19" s="32">
-        <v>10</v>
-      </c>
-      <c r="V19" s="32">
-        <v>15</v>
-      </c>
-      <c r="W19" s="32">
-        <v>10</v>
-      </c>
-      <c r="X19" s="32">
-        <f t="shared" si="0"/>
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +3289,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3033,12 +3305,13 @@
     <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3069,11 +3342,14 @@
       <c r="J1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3094,14 +3370,18 @@
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="I2" s="15">
+        <v>13</v>
+      </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="16">
-        <f t="shared" ref="K2:K19" si="0">SUM(C2:J2)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="35">
+        <v>61</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3122,14 +3402,16 @@
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="35">
+        <v>61</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3152,14 +3434,19 @@
       <c r="H4" s="15">
         <v>10</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="15">
+        <v>16</v>
+      </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="16">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="35">
+        <f t="shared" ref="K3:K19" si="0">SUM(C4:J4)</f>
+        <v>86</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3182,12 +3469,14 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="16">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="35">
+        <v>61</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3203,19 +3492,26 @@
       <c r="E6" s="15">
         <v>15</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="15">
+        <v>7</v>
+      </c>
       <c r="G6" s="15">
         <v>6</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="I6" s="15">
+        <v>17</v>
+      </c>
       <c r="J6" s="15"/>
-      <c r="K6" s="16">
+      <c r="K6" s="35">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3236,14 +3532,18 @@
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="I7" s="15">
+        <v>15</v>
+      </c>
       <c r="J7" s="15"/>
-      <c r="K7" s="16">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="35">
+        <v>76</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3264,16 +3564,20 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="I8" s="15">
+        <v>10</v>
+      </c>
       <c r="J8" s="15">
         <v>20</v>
       </c>
-      <c r="K8" s="16">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="35">
+        <v>91</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3296,14 +3600,18 @@
         <v>10</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="15">
+        <v>17</v>
+      </c>
       <c r="J9" s="15"/>
-      <c r="K9" s="16">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="35">
+        <v>91</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3326,14 +3634,19 @@
         <v>10</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="15">
+        <v>16</v>
+      </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="16">
+      <c r="K10" s="35">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3358,14 +3671,19 @@
       <c r="H11" s="15">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="15">
+        <v>17</v>
+      </c>
       <c r="J11" s="15"/>
-      <c r="K11" s="16">
+      <c r="K11" s="35">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3388,14 +3706,18 @@
         <v>5</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="I12" s="15">
+        <v>14</v>
+      </c>
       <c r="J12" s="15"/>
-      <c r="K12" s="16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="35">
+        <v>76</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3418,14 +3740,19 @@
         <v>10</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="I13" s="15">
+        <v>17</v>
+      </c>
       <c r="J13" s="15"/>
-      <c r="K13" s="16">
+      <c r="K13" s="35">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3441,19 +3768,26 @@
       <c r="E14" s="15">
         <v>15</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15">
+        <v>7</v>
+      </c>
       <c r="G14" s="15">
         <v>6</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="15">
+        <v>15</v>
+      </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="16">
+      <c r="K14" s="35">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3468,12 +3802,15 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="16">
+      <c r="K15" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3492,15 +3829,22 @@
       <c r="F16" s="16">
         <v>15</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15">
+        <v>10</v>
+      </c>
       <c r="H16" s="15">
         <v>10</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="15">
+        <v>18</v>
+      </c>
       <c r="J16" s="15"/>
-      <c r="K16" s="16">
+      <c r="K16" s="35">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>98</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3524,13 +3868,17 @@
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="20">
+        <v>18</v>
+      </c>
       <c r="J17" s="20">
         <v>23</v>
       </c>
-      <c r="K17" s="19">
-        <f t="shared" si="0"/>
-        <v>83</v>
+      <c r="K17" s="36">
+        <v>100</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3558,11 +3906,16 @@
       <c r="H18" s="28">
         <v>10</v>
       </c>
-      <c r="I18" s="28"/>
+      <c r="I18" s="28">
+        <v>18</v>
+      </c>
       <c r="J18" s="28"/>
-      <c r="K18" s="27">
+      <c r="K18" s="37">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3588,26 +3941,50 @@
         <v>10</v>
       </c>
       <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="I19" s="28">
+        <v>12</v>
+      </c>
       <c r="J19" s="28"/>
       <c r="K19" s="27">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>82</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="A20" s="38">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28">
+        <v>10</v>
+      </c>
+      <c r="E20" s="28">
+        <v>15</v>
+      </c>
+      <c r="F20" s="28">
+        <v>15</v>
+      </c>
+      <c r="G20" s="28">
+        <v>10</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28">
+        <v>12</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28">
+        <f>SUM(C20:J20)</f>
+        <v>62</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="M20" s="22"/>
       <c r="N20" s="23"/>
     </row>
